--- a/Results/Evaluations/Relevance/RQ4.xlsx
+++ b/Results/Evaluations/Relevance/RQ4.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20407"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20408"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Articles\12-ASE\Submission\Results\Evaluations\Relevance\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Articles\12-ASE\Submission_Major\Results\Evaluations\Relevance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC89DAA0-4A4C-43FC-B860-1B8E9FABD932}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E147D391-570E-4557-B22B-D79CD86B94B1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="11930" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="11925" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RQ4" sheetId="1" r:id="rId1"/>
@@ -9877,163 +9877,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">User Story: 
-As a user, I want to search and discover music or ringback tones similar to a given music video based on content similarity.	
-Acceptance Criteria:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1. The user should be able to iput music videos in the search.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2. The search results for the given music videos should be music or ringback tones.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>3. The search results should be returned based on the content similarity on genre, tempo, beat, and instrumental arragenment.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>4. The search results should be listed with similarity percentages.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">5. The search results could be sorted by different orders: similarity, release date, popularity, rating.
-6. The search results could be filtered by different conditions: similarity, release date.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">7. Proper search handling mechnism, such as partial match.
-8. For failuare search results, propser message should be prompt.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>9. The system should provide a preview option for users to listen to a snippet of the results.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>10. When there is large amount of similar results being returned, the display of the results should be no significant delay or latency.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-11. The results should be displayed by pages, for each page consist of X results. The number of total results and pages should be correctly displayed.</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">Acceptance Criteria (generated from Model #1)
 </t>
     </r>
@@ -10824,6 +10667,163 @@
   </si>
   <si>
     <t>r=0.90</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">User Story: 
+As a user, I want to search and discover music or ringback tones similar to a given music video based on content similarity.	
+Acceptance Criteria:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1. The user should be able to iput music videos in the search.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2. The search results for the given music videos should be music or ringback tones.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3. The search results should be returned based on the content similarity on genre, tempo, beat, and instrumental arragenment.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4. The search results should be listed with similarity percentages.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5. The search results could be sorted by different orders: similarity, release date, popularity, rating.
+6. The search results could be filtered by different conditions: similarity, release date.
+7. Proper search handling mechnism, such as partial match.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+8. For failuare search results, propser message should be prompt.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>9. The system should provide a preview option for users to listen to a snippet of the results.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>10. When there is large amount of similar results being returned, the display of the results should be no significant delay or latency.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+11. The results should be displayed by pages, for each page consist of X results. The number of total results and pages should be correctly displayed.</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -10954,21 +10954,21 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -11251,19 +11251,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J91"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I63" sqref="I63"/>
+    <sheetView tabSelected="1" topLeftCell="B83" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I84" sqref="I84"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="9" max="9" width="82.26953125" customWidth="1"/>
-    <col min="10" max="10" width="130.7265625" customWidth="1"/>
+    <col min="9" max="9" width="82.28515625" customWidth="1"/>
+    <col min="10" max="10" width="130.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>0</v>
@@ -11293,14 +11293,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="232" x14ac:dyDescent="0.35">
-      <c r="A2" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="B2" s="8">
+    <row r="2" spans="1:10" ht="270" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="B2" s="15">
         <v>1</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="15">
         <v>30</v>
       </c>
       <c r="D2" s="1">
@@ -11325,10 +11325,10 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="232" x14ac:dyDescent="0.35">
-      <c r="A3" s="9"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
+    <row r="3" spans="1:10" ht="255" x14ac:dyDescent="0.25">
+      <c r="A3" s="14"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
       <c r="D3" s="1">
         <v>2</v>
       </c>
@@ -11351,10 +11351,10 @@
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="232" x14ac:dyDescent="0.35">
-      <c r="A4" s="9"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
+    <row r="4" spans="1:10" ht="255" x14ac:dyDescent="0.25">
+      <c r="A4" s="14"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
       <c r="D4" s="1">
         <v>3</v>
       </c>
@@ -11377,12 +11377,12 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="304.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="9"/>
-      <c r="B5" s="7">
+    <row r="5" spans="1:10" ht="315" x14ac:dyDescent="0.25">
+      <c r="A5" s="14"/>
+      <c r="B5" s="13">
         <v>2</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="13">
         <v>63</v>
       </c>
       <c r="D5" s="3">
@@ -11407,10 +11407,10 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="304.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="9"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
+    <row r="6" spans="1:10" ht="315" x14ac:dyDescent="0.25">
+      <c r="A6" s="14"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
       <c r="D6" s="3">
         <v>2</v>
       </c>
@@ -11433,10 +11433,10 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="304.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="9"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
+    <row r="7" spans="1:10" ht="315" x14ac:dyDescent="0.25">
+      <c r="A7" s="14"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
       <c r="D7" s="3">
         <v>3</v>
       </c>
@@ -11459,12 +11459,12 @@
         <v>62</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="246.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="9"/>
-      <c r="B8" s="8">
+    <row r="8" spans="1:10" ht="270" x14ac:dyDescent="0.25">
+      <c r="A8" s="14"/>
+      <c r="B8" s="15">
         <v>3</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="15">
         <v>53</v>
       </c>
       <c r="D8" s="1">
@@ -11483,16 +11483,16 @@
         <v>5</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="246.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="9"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
+    <row r="9" spans="1:10" ht="270" x14ac:dyDescent="0.25">
+      <c r="A9" s="14"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
       <c r="D9" s="1">
         <v>2</v>
       </c>
@@ -11509,16 +11509,16 @@
         <v>1</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="J9" s="2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="246.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="9"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
+    <row r="10" spans="1:10" ht="270" x14ac:dyDescent="0.25">
+      <c r="A10" s="14"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
       <c r="D10" s="1">
         <v>3</v>
       </c>
@@ -11535,18 +11535,18 @@
         <v>1</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J10" s="2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="290" x14ac:dyDescent="0.35">
-      <c r="A11" s="9"/>
-      <c r="B11" s="7">
+    <row r="11" spans="1:10" ht="315" x14ac:dyDescent="0.25">
+      <c r="A11" s="14"/>
+      <c r="B11" s="13">
         <v>4</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="13">
         <v>37</v>
       </c>
       <c r="D11" s="3">
@@ -11571,10 +11571,10 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="290" x14ac:dyDescent="0.35">
-      <c r="A12" s="9"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
+    <row r="12" spans="1:10" ht="315" x14ac:dyDescent="0.25">
+      <c r="A12" s="14"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
       <c r="D12" s="3">
         <v>2</v>
       </c>
@@ -11597,10 +11597,10 @@
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="290" x14ac:dyDescent="0.35">
-      <c r="A13" s="9"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
+    <row r="13" spans="1:10" ht="315" x14ac:dyDescent="0.25">
+      <c r="A13" s="14"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
       <c r="D13" s="3">
         <v>3</v>
       </c>
@@ -11623,12 +11623,12 @@
         <v>68</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="246.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="9"/>
-      <c r="B14" s="8">
+    <row r="14" spans="1:10" ht="255" x14ac:dyDescent="0.25">
+      <c r="A14" s="14"/>
+      <c r="B14" s="15">
         <v>5</v>
       </c>
-      <c r="C14" s="8">
+      <c r="C14" s="15">
         <v>26</v>
       </c>
       <c r="D14" s="1">
@@ -11653,10 +11653,10 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="246.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="9"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
+    <row r="15" spans="1:10" ht="255" x14ac:dyDescent="0.25">
+      <c r="A15" s="14"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
       <c r="D15" s="1">
         <v>2</v>
       </c>
@@ -11679,10 +11679,10 @@
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="246.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="9"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
+    <row r="16" spans="1:10" ht="255" x14ac:dyDescent="0.25">
+      <c r="A16" s="14"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
       <c r="D16" s="1">
         <v>3</v>
       </c>
@@ -11705,12 +11705,12 @@
         <v>72</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="246.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="9"/>
-      <c r="B17" s="7">
+    <row r="17" spans="1:10" ht="285" x14ac:dyDescent="0.25">
+      <c r="A17" s="14"/>
+      <c r="B17" s="13">
         <v>6</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17" s="13">
         <v>57</v>
       </c>
       <c r="D17" s="3">
@@ -11735,10 +11735,10 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="217.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="9"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
+    <row r="18" spans="1:10" ht="240" x14ac:dyDescent="0.25">
+      <c r="A18" s="14"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
       <c r="D18" s="3">
         <v>2</v>
       </c>
@@ -11761,10 +11761,10 @@
         <v>57</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="217.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="9"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
+    <row r="19" spans="1:10" ht="240" x14ac:dyDescent="0.25">
+      <c r="A19" s="14"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
       <c r="D19" s="3">
         <v>3</v>
       </c>
@@ -11787,12 +11787,12 @@
         <v>75</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="261" x14ac:dyDescent="0.35">
-      <c r="A20" s="9"/>
-      <c r="B20" s="8">
+    <row r="20" spans="1:10" ht="285" x14ac:dyDescent="0.25">
+      <c r="A20" s="14"/>
+      <c r="B20" s="15">
         <v>7</v>
       </c>
-      <c r="C20" s="8">
+      <c r="C20" s="15">
         <v>65</v>
       </c>
       <c r="D20" s="1">
@@ -11817,10 +11817,10 @@
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="261" x14ac:dyDescent="0.35">
-      <c r="A21" s="9"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
+    <row r="21" spans="1:10" ht="285" x14ac:dyDescent="0.25">
+      <c r="A21" s="14"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="15"/>
       <c r="D21" s="1">
         <v>2</v>
       </c>
@@ -11843,10 +11843,10 @@
         <v>77</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="261" x14ac:dyDescent="0.35">
-      <c r="A22" s="9"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
+    <row r="22" spans="1:10" ht="285" x14ac:dyDescent="0.25">
+      <c r="A22" s="14"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="15"/>
       <c r="D22" s="1">
         <v>3</v>
       </c>
@@ -11869,12 +11869,12 @@
         <v>79</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="275.5" x14ac:dyDescent="0.35">
-      <c r="A23" s="9"/>
-      <c r="B23" s="7">
+    <row r="23" spans="1:10" ht="300" x14ac:dyDescent="0.25">
+      <c r="A23" s="14"/>
+      <c r="B23" s="13">
         <v>8</v>
       </c>
-      <c r="C23" s="7">
+      <c r="C23" s="13">
         <v>2</v>
       </c>
       <c r="D23" s="3">
@@ -11899,10 +11899,10 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="275.5" x14ac:dyDescent="0.35">
-      <c r="A24" s="9"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
+    <row r="24" spans="1:10" ht="300" x14ac:dyDescent="0.25">
+      <c r="A24" s="14"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
       <c r="D24" s="3">
         <v>2</v>
       </c>
@@ -11925,10 +11925,10 @@
         <v>81</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="275.5" x14ac:dyDescent="0.35">
-      <c r="A25" s="9"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
+    <row r="25" spans="1:10" ht="300" x14ac:dyDescent="0.25">
+      <c r="A25" s="14"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="13"/>
       <c r="D25" s="3">
         <v>3</v>
       </c>
@@ -11951,12 +11951,12 @@
         <v>83</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="203" x14ac:dyDescent="0.35">
-      <c r="A26" s="9"/>
-      <c r="B26" s="8">
+    <row r="26" spans="1:10" ht="210" x14ac:dyDescent="0.25">
+      <c r="A26" s="14"/>
+      <c r="B26" s="15">
         <v>9</v>
       </c>
-      <c r="C26" s="8">
+      <c r="C26" s="15">
         <v>40</v>
       </c>
       <c r="D26" s="1">
@@ -11978,13 +11978,13 @@
         <v>19</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="203" x14ac:dyDescent="0.35">
-      <c r="A27" s="9"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
+    <row r="27" spans="1:10" ht="210" x14ac:dyDescent="0.25">
+      <c r="A27" s="14"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="15"/>
       <c r="D27" s="1">
         <v>2</v>
       </c>
@@ -12007,10 +12007,10 @@
         <v>85</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="203" x14ac:dyDescent="0.35">
-      <c r="A28" s="9"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
+    <row r="28" spans="1:10" ht="210" x14ac:dyDescent="0.25">
+      <c r="A28" s="14"/>
+      <c r="B28" s="15"/>
+      <c r="C28" s="15"/>
       <c r="D28" s="1">
         <v>3</v>
       </c>
@@ -12033,12 +12033,12 @@
         <v>88</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="188.5" x14ac:dyDescent="0.35">
-      <c r="A29" s="9"/>
-      <c r="B29" s="7">
+    <row r="29" spans="1:10" ht="210" x14ac:dyDescent="0.25">
+      <c r="A29" s="14"/>
+      <c r="B29" s="13">
         <v>10</v>
       </c>
-      <c r="C29" s="7">
+      <c r="C29" s="13">
         <v>58</v>
       </c>
       <c r="D29" s="3">
@@ -12063,10 +12063,10 @@
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="188.5" x14ac:dyDescent="0.35">
-      <c r="A30" s="9"/>
-      <c r="B30" s="7"/>
-      <c r="C30" s="7"/>
+    <row r="30" spans="1:10" ht="210" x14ac:dyDescent="0.25">
+      <c r="A30" s="14"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="13"/>
       <c r="D30" s="3">
         <v>2</v>
       </c>
@@ -12089,10 +12089,10 @@
         <v>89</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="188.5" x14ac:dyDescent="0.35">
-      <c r="A31" s="9"/>
-      <c r="B31" s="7"/>
-      <c r="C31" s="7"/>
+    <row r="31" spans="1:10" ht="210" x14ac:dyDescent="0.25">
+      <c r="A31" s="14"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="13"/>
       <c r="D31" s="3">
         <v>3</v>
       </c>
@@ -12115,14 +12115,14 @@
         <v>91</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="261" x14ac:dyDescent="0.35">
-      <c r="A32" s="9" t="s">
-        <v>186</v>
-      </c>
-      <c r="B32" s="8">
+    <row r="32" spans="1:10" ht="285" x14ac:dyDescent="0.25">
+      <c r="A32" s="14" t="s">
+        <v>185</v>
+      </c>
+      <c r="B32" s="15">
         <v>1</v>
       </c>
-      <c r="C32" s="8">
+      <c r="C32" s="15">
         <v>50</v>
       </c>
       <c r="D32" s="1">
@@ -12147,10 +12147,10 @@
         <v>38</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="261" x14ac:dyDescent="0.35">
-      <c r="A33" s="9"/>
-      <c r="B33" s="8"/>
-      <c r="C33" s="8"/>
+    <row r="33" spans="1:10" ht="285" x14ac:dyDescent="0.25">
+      <c r="A33" s="14"/>
+      <c r="B33" s="15"/>
+      <c r="C33" s="15"/>
       <c r="D33" s="1">
         <v>2</v>
       </c>
@@ -12173,10 +12173,10 @@
         <v>93</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="261" x14ac:dyDescent="0.35">
-      <c r="A34" s="9"/>
-      <c r="B34" s="8"/>
-      <c r="C34" s="8"/>
+    <row r="34" spans="1:10" ht="285" x14ac:dyDescent="0.25">
+      <c r="A34" s="14"/>
+      <c r="B34" s="15"/>
+      <c r="C34" s="15"/>
       <c r="D34" s="1">
         <v>3</v>
       </c>
@@ -12199,12 +12199,12 @@
         <v>95</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="232" x14ac:dyDescent="0.35">
-      <c r="A35" s="9"/>
-      <c r="B35" s="7">
+    <row r="35" spans="1:10" ht="255" x14ac:dyDescent="0.25">
+      <c r="A35" s="14"/>
+      <c r="B35" s="13">
         <v>2</v>
       </c>
-      <c r="C35" s="7">
+      <c r="C35" s="13">
         <v>27</v>
       </c>
       <c r="D35" s="3">
@@ -12229,10 +12229,10 @@
         <v>39</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="232" x14ac:dyDescent="0.35">
-      <c r="A36" s="9"/>
-      <c r="B36" s="7"/>
-      <c r="C36" s="7"/>
+    <row r="36" spans="1:10" ht="255" x14ac:dyDescent="0.25">
+      <c r="A36" s="14"/>
+      <c r="B36" s="13"/>
+      <c r="C36" s="13"/>
       <c r="D36" s="3">
         <v>2</v>
       </c>
@@ -12255,10 +12255,10 @@
         <v>96</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="232" x14ac:dyDescent="0.35">
-      <c r="A37" s="9"/>
-      <c r="B37" s="7"/>
-      <c r="C37" s="7"/>
+    <row r="37" spans="1:10" ht="255" x14ac:dyDescent="0.25">
+      <c r="A37" s="14"/>
+      <c r="B37" s="13"/>
+      <c r="C37" s="13"/>
       <c r="D37" s="3">
         <v>3</v>
       </c>
@@ -12281,12 +12281,12 @@
         <v>98</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="261" x14ac:dyDescent="0.35">
-      <c r="A38" s="9"/>
-      <c r="B38" s="8">
+    <row r="38" spans="1:10" ht="270" x14ac:dyDescent="0.25">
+      <c r="A38" s="14"/>
+      <c r="B38" s="15">
         <v>3</v>
       </c>
-      <c r="C38" s="8">
+      <c r="C38" s="15">
         <v>7</v>
       </c>
       <c r="D38" s="1">
@@ -12311,10 +12311,10 @@
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="261" x14ac:dyDescent="0.35">
-      <c r="A39" s="9"/>
-      <c r="B39" s="8"/>
-      <c r="C39" s="8"/>
+    <row r="39" spans="1:10" ht="270" x14ac:dyDescent="0.25">
+      <c r="A39" s="14"/>
+      <c r="B39" s="15"/>
+      <c r="C39" s="15"/>
       <c r="D39" s="1">
         <v>2</v>
       </c>
@@ -12337,10 +12337,10 @@
         <v>100</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="261" x14ac:dyDescent="0.35">
-      <c r="A40" s="9"/>
-      <c r="B40" s="8"/>
-      <c r="C40" s="8"/>
+    <row r="40" spans="1:10" ht="270" x14ac:dyDescent="0.25">
+      <c r="A40" s="14"/>
+      <c r="B40" s="15"/>
+      <c r="C40" s="15"/>
       <c r="D40" s="1">
         <v>3</v>
       </c>
@@ -12363,12 +12363,12 @@
         <v>103</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="232" x14ac:dyDescent="0.35">
-      <c r="A41" s="9"/>
-      <c r="B41" s="7">
+    <row r="41" spans="1:10" ht="270" x14ac:dyDescent="0.25">
+      <c r="A41" s="14"/>
+      <c r="B41" s="13">
         <v>4</v>
       </c>
-      <c r="C41" s="7">
+      <c r="C41" s="13">
         <v>25</v>
       </c>
       <c r="D41" s="3">
@@ -12393,10 +12393,10 @@
         <v>41</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="232" x14ac:dyDescent="0.35">
-      <c r="A42" s="9"/>
-      <c r="B42" s="7"/>
-      <c r="C42" s="7"/>
+    <row r="42" spans="1:10" ht="270" x14ac:dyDescent="0.25">
+      <c r="A42" s="14"/>
+      <c r="B42" s="13"/>
+      <c r="C42" s="13"/>
       <c r="D42" s="3">
         <v>2</v>
       </c>
@@ -12419,10 +12419,10 @@
         <v>104</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="232" x14ac:dyDescent="0.35">
-      <c r="A43" s="9"/>
-      <c r="B43" s="7"/>
-      <c r="C43" s="7"/>
+    <row r="43" spans="1:10" ht="270" x14ac:dyDescent="0.25">
+      <c r="A43" s="14"/>
+      <c r="B43" s="13"/>
+      <c r="C43" s="13"/>
       <c r="D43" s="3">
         <v>3</v>
       </c>
@@ -12445,12 +12445,12 @@
         <v>106</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="290" x14ac:dyDescent="0.35">
-      <c r="A44" s="9"/>
-      <c r="B44" s="8">
+    <row r="44" spans="1:10" ht="315" x14ac:dyDescent="0.25">
+      <c r="A44" s="14"/>
+      <c r="B44" s="15">
         <v>5</v>
       </c>
-      <c r="C44" s="8">
+      <c r="C44" s="15">
         <v>11</v>
       </c>
       <c r="D44" s="1">
@@ -12469,16 +12469,16 @@
         <v>5</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J44" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="290" x14ac:dyDescent="0.35">
-      <c r="A45" s="9"/>
-      <c r="B45" s="8"/>
-      <c r="C45" s="8"/>
+    <row r="45" spans="1:10" ht="315" x14ac:dyDescent="0.25">
+      <c r="A45" s="14"/>
+      <c r="B45" s="15"/>
+      <c r="C45" s="15"/>
       <c r="D45" s="1">
         <v>2</v>
       </c>
@@ -12495,16 +12495,16 @@
         <v>1</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J45" s="2" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="290" x14ac:dyDescent="0.35">
-      <c r="A46" s="9"/>
-      <c r="B46" s="8"/>
-      <c r="C46" s="8"/>
+    <row r="46" spans="1:10" ht="315" x14ac:dyDescent="0.25">
+      <c r="A46" s="14"/>
+      <c r="B46" s="15"/>
+      <c r="C46" s="15"/>
       <c r="D46" s="1">
         <v>3</v>
       </c>
@@ -12521,18 +12521,18 @@
         <v>2</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J46" s="2" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="47" spans="1:10" ht="319" x14ac:dyDescent="0.35">
-      <c r="A47" s="9"/>
-      <c r="B47" s="7">
+    <row r="47" spans="1:10" ht="345" x14ac:dyDescent="0.25">
+      <c r="A47" s="14"/>
+      <c r="B47" s="13">
         <v>6</v>
       </c>
-      <c r="C47" s="7">
+      <c r="C47" s="13">
         <v>26</v>
       </c>
       <c r="D47" s="3">
@@ -12557,10 +12557,10 @@
         <v>42</v>
       </c>
     </row>
-    <row r="48" spans="1:10" ht="319" x14ac:dyDescent="0.35">
-      <c r="A48" s="9"/>
-      <c r="B48" s="7"/>
-      <c r="C48" s="7"/>
+    <row r="48" spans="1:10" ht="345" x14ac:dyDescent="0.25">
+      <c r="A48" s="14"/>
+      <c r="B48" s="13"/>
+      <c r="C48" s="13"/>
       <c r="D48" s="3">
         <v>2</v>
       </c>
@@ -12583,10 +12583,10 @@
         <v>110</v>
       </c>
     </row>
-    <row r="49" spans="1:10" ht="319" x14ac:dyDescent="0.35">
-      <c r="A49" s="9"/>
-      <c r="B49" s="7"/>
-      <c r="C49" s="7"/>
+    <row r="49" spans="1:10" ht="345" x14ac:dyDescent="0.25">
+      <c r="A49" s="14"/>
+      <c r="B49" s="13"/>
+      <c r="C49" s="13"/>
       <c r="D49" s="3">
         <v>3</v>
       </c>
@@ -12609,12 +12609,12 @@
         <v>112</v>
       </c>
     </row>
-    <row r="50" spans="1:10" ht="159.5" x14ac:dyDescent="0.35">
-      <c r="A50" s="9"/>
-      <c r="B50" s="8">
+    <row r="50" spans="1:10" ht="180" x14ac:dyDescent="0.25">
+      <c r="A50" s="14"/>
+      <c r="B50" s="15">
         <v>7</v>
       </c>
-      <c r="C50" s="8">
+      <c r="C50" s="15">
         <v>16</v>
       </c>
       <c r="D50" s="1">
@@ -12639,10 +12639,10 @@
         <v>44</v>
       </c>
     </row>
-    <row r="51" spans="1:10" ht="159.5" x14ac:dyDescent="0.35">
-      <c r="A51" s="9"/>
-      <c r="B51" s="8"/>
-      <c r="C51" s="8"/>
+    <row r="51" spans="1:10" ht="180" x14ac:dyDescent="0.25">
+      <c r="A51" s="14"/>
+      <c r="B51" s="15"/>
+      <c r="C51" s="15"/>
       <c r="D51" s="1">
         <v>2</v>
       </c>
@@ -12665,10 +12665,10 @@
         <v>113</v>
       </c>
     </row>
-    <row r="52" spans="1:10" ht="159.5" x14ac:dyDescent="0.35">
-      <c r="A52" s="9"/>
-      <c r="B52" s="8"/>
-      <c r="C52" s="8"/>
+    <row r="52" spans="1:10" ht="180" x14ac:dyDescent="0.25">
+      <c r="A52" s="14"/>
+      <c r="B52" s="15"/>
+      <c r="C52" s="15"/>
       <c r="D52" s="1">
         <v>3</v>
       </c>
@@ -12691,12 +12691,12 @@
         <v>115</v>
       </c>
     </row>
-    <row r="53" spans="1:10" ht="261" x14ac:dyDescent="0.35">
-      <c r="A53" s="9"/>
-      <c r="B53" s="7">
+    <row r="53" spans="1:10" ht="285" x14ac:dyDescent="0.25">
+      <c r="A53" s="14"/>
+      <c r="B53" s="13">
         <v>8</v>
       </c>
-      <c r="C53" s="7">
+      <c r="C53" s="13">
         <v>21</v>
       </c>
       <c r="D53" s="3">
@@ -12721,10 +12721,10 @@
         <v>45</v>
       </c>
     </row>
-    <row r="54" spans="1:10" ht="261" x14ac:dyDescent="0.35">
-      <c r="A54" s="9"/>
-      <c r="B54" s="7"/>
-      <c r="C54" s="7"/>
+    <row r="54" spans="1:10" ht="285" x14ac:dyDescent="0.25">
+      <c r="A54" s="14"/>
+      <c r="B54" s="13"/>
+      <c r="C54" s="13"/>
       <c r="D54" s="3">
         <v>2</v>
       </c>
@@ -12747,10 +12747,10 @@
         <v>117</v>
       </c>
     </row>
-    <row r="55" spans="1:10" ht="261" x14ac:dyDescent="0.35">
-      <c r="A55" s="9"/>
-      <c r="B55" s="7"/>
-      <c r="C55" s="7"/>
+    <row r="55" spans="1:10" ht="285" x14ac:dyDescent="0.25">
+      <c r="A55" s="14"/>
+      <c r="B55" s="13"/>
+      <c r="C55" s="13"/>
       <c r="D55" s="3">
         <v>3</v>
       </c>
@@ -12773,12 +12773,12 @@
         <v>119</v>
       </c>
     </row>
-    <row r="56" spans="1:10" ht="203" x14ac:dyDescent="0.35">
-      <c r="A56" s="9"/>
-      <c r="B56" s="8">
+    <row r="56" spans="1:10" ht="240" x14ac:dyDescent="0.25">
+      <c r="A56" s="14"/>
+      <c r="B56" s="15">
         <v>9</v>
       </c>
-      <c r="C56" s="8">
+      <c r="C56" s="15">
         <v>8</v>
       </c>
       <c r="D56" s="1">
@@ -12803,10 +12803,10 @@
         <v>46</v>
       </c>
     </row>
-    <row r="57" spans="1:10" ht="203" x14ac:dyDescent="0.35">
-      <c r="A57" s="9"/>
-      <c r="B57" s="8"/>
-      <c r="C57" s="8"/>
+    <row r="57" spans="1:10" ht="210" x14ac:dyDescent="0.25">
+      <c r="A57" s="14"/>
+      <c r="B57" s="15"/>
+      <c r="C57" s="15"/>
       <c r="D57" s="1">
         <v>2</v>
       </c>
@@ -12829,10 +12829,10 @@
         <v>121</v>
       </c>
     </row>
-    <row r="58" spans="1:10" ht="203" x14ac:dyDescent="0.35">
-      <c r="A58" s="9"/>
-      <c r="B58" s="8"/>
-      <c r="C58" s="8"/>
+    <row r="58" spans="1:10" ht="210" x14ac:dyDescent="0.25">
+      <c r="A58" s="14"/>
+      <c r="B58" s="15"/>
+      <c r="C58" s="15"/>
       <c r="D58" s="1">
         <v>3</v>
       </c>
@@ -12855,12 +12855,12 @@
         <v>123</v>
       </c>
     </row>
-    <row r="59" spans="1:10" ht="217.5" x14ac:dyDescent="0.35">
-      <c r="A59" s="9"/>
-      <c r="B59" s="7">
+    <row r="59" spans="1:10" ht="225" x14ac:dyDescent="0.25">
+      <c r="A59" s="14"/>
+      <c r="B59" s="13">
         <v>10</v>
       </c>
-      <c r="C59" s="7">
+      <c r="C59" s="13">
         <v>1</v>
       </c>
       <c r="D59" s="3">
@@ -12885,10 +12885,10 @@
         <v>47</v>
       </c>
     </row>
-    <row r="60" spans="1:10" ht="217.5" x14ac:dyDescent="0.35">
-      <c r="A60" s="9"/>
-      <c r="B60" s="7"/>
-      <c r="C60" s="7"/>
+    <row r="60" spans="1:10" ht="225" x14ac:dyDescent="0.25">
+      <c r="A60" s="14"/>
+      <c r="B60" s="13"/>
+      <c r="C60" s="13"/>
       <c r="D60" s="3">
         <v>2</v>
       </c>
@@ -12911,10 +12911,10 @@
         <v>125</v>
       </c>
     </row>
-    <row r="61" spans="1:10" ht="217.5" x14ac:dyDescent="0.35">
-      <c r="A61" s="9"/>
-      <c r="B61" s="7"/>
-      <c r="C61" s="7"/>
+    <row r="61" spans="1:10" ht="225" x14ac:dyDescent="0.25">
+      <c r="A61" s="14"/>
+      <c r="B61" s="13"/>
+      <c r="C61" s="13"/>
       <c r="D61" s="3">
         <v>3</v>
       </c>
@@ -12937,14 +12937,14 @@
         <v>127</v>
       </c>
     </row>
-    <row r="62" spans="1:10" ht="319" x14ac:dyDescent="0.35">
-      <c r="A62" s="9" t="s">
-        <v>187</v>
-      </c>
-      <c r="B62" s="8">
+    <row r="62" spans="1:10" ht="330" x14ac:dyDescent="0.25">
+      <c r="A62" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="B62" s="15">
         <v>1</v>
       </c>
-      <c r="C62" s="8">
+      <c r="C62" s="15">
         <v>6</v>
       </c>
       <c r="D62" s="1">
@@ -12969,10 +12969,10 @@
         <v>152</v>
       </c>
     </row>
-    <row r="63" spans="1:10" ht="319" x14ac:dyDescent="0.35">
-      <c r="A63" s="9"/>
-      <c r="B63" s="8"/>
-      <c r="C63" s="8"/>
+    <row r="63" spans="1:10" ht="330" x14ac:dyDescent="0.25">
+      <c r="A63" s="14"/>
+      <c r="B63" s="15"/>
+      <c r="C63" s="15"/>
       <c r="D63" s="1">
         <v>2</v>
       </c>
@@ -12995,10 +12995,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="64" spans="1:10" ht="319" x14ac:dyDescent="0.35">
-      <c r="A64" s="9"/>
-      <c r="B64" s="8"/>
-      <c r="C64" s="8"/>
+    <row r="64" spans="1:10" ht="330" x14ac:dyDescent="0.25">
+      <c r="A64" s="14"/>
+      <c r="B64" s="15"/>
+      <c r="C64" s="15"/>
       <c r="D64" s="1">
         <v>3</v>
       </c>
@@ -13021,12 +13021,12 @@
         <v>129</v>
       </c>
     </row>
-    <row r="65" spans="1:10" ht="246.5" x14ac:dyDescent="0.35">
-      <c r="A65" s="9"/>
-      <c r="B65" s="7">
+    <row r="65" spans="1:10" ht="285" x14ac:dyDescent="0.25">
+      <c r="A65" s="14"/>
+      <c r="B65" s="13">
         <v>2</v>
       </c>
-      <c r="C65" s="7">
+      <c r="C65" s="13">
         <v>49</v>
       </c>
       <c r="D65" s="3">
@@ -13051,10 +13051,10 @@
         <v>153</v>
       </c>
     </row>
-    <row r="66" spans="1:10" ht="246.5" x14ac:dyDescent="0.35">
-      <c r="A66" s="9"/>
-      <c r="B66" s="7"/>
-      <c r="C66" s="7"/>
+    <row r="66" spans="1:10" ht="285" x14ac:dyDescent="0.25">
+      <c r="A66" s="14"/>
+      <c r="B66" s="13"/>
+      <c r="C66" s="13"/>
       <c r="D66" s="3">
         <v>2</v>
       </c>
@@ -13077,10 +13077,10 @@
         <v>131</v>
       </c>
     </row>
-    <row r="67" spans="1:10" ht="246.5" x14ac:dyDescent="0.35">
-      <c r="A67" s="9"/>
-      <c r="B67" s="7"/>
-      <c r="C67" s="7"/>
+    <row r="67" spans="1:10" ht="285" x14ac:dyDescent="0.25">
+      <c r="A67" s="14"/>
+      <c r="B67" s="13"/>
+      <c r="C67" s="13"/>
       <c r="D67" s="3">
         <v>3</v>
       </c>
@@ -13103,12 +13103,12 @@
         <v>133</v>
       </c>
     </row>
-    <row r="68" spans="1:10" ht="333.5" x14ac:dyDescent="0.35">
-      <c r="A68" s="9"/>
-      <c r="B68" s="8">
+    <row r="68" spans="1:10" ht="375" x14ac:dyDescent="0.25">
+      <c r="A68" s="14"/>
+      <c r="B68" s="15">
         <v>3</v>
       </c>
-      <c r="C68" s="8">
+      <c r="C68" s="15">
         <v>5</v>
       </c>
       <c r="D68" s="1">
@@ -13133,10 +13133,10 @@
         <v>154</v>
       </c>
     </row>
-    <row r="69" spans="1:10" ht="333.5" x14ac:dyDescent="0.35">
-      <c r="A69" s="9"/>
-      <c r="B69" s="8"/>
-      <c r="C69" s="8"/>
+    <row r="69" spans="1:10" ht="375" x14ac:dyDescent="0.25">
+      <c r="A69" s="14"/>
+      <c r="B69" s="15"/>
+      <c r="C69" s="15"/>
       <c r="D69" s="1">
         <v>2</v>
       </c>
@@ -13159,10 +13159,10 @@
         <v>136</v>
       </c>
     </row>
-    <row r="70" spans="1:10" ht="333.5" x14ac:dyDescent="0.35">
-      <c r="A70" s="9"/>
-      <c r="B70" s="8"/>
-      <c r="C70" s="8"/>
+    <row r="70" spans="1:10" ht="375" x14ac:dyDescent="0.25">
+      <c r="A70" s="14"/>
+      <c r="B70" s="15"/>
+      <c r="C70" s="15"/>
       <c r="D70" s="1">
         <v>3</v>
       </c>
@@ -13185,12 +13185,12 @@
         <v>138</v>
       </c>
     </row>
-    <row r="71" spans="1:10" ht="232" x14ac:dyDescent="0.35">
-      <c r="A71" s="9"/>
-      <c r="B71" s="7">
+    <row r="71" spans="1:10" ht="240" x14ac:dyDescent="0.25">
+      <c r="A71" s="14"/>
+      <c r="B71" s="13">
         <v>4</v>
       </c>
-      <c r="C71" s="7">
+      <c r="C71" s="13">
         <v>20</v>
       </c>
       <c r="D71" s="3">
@@ -13215,10 +13215,10 @@
         <v>155</v>
       </c>
     </row>
-    <row r="72" spans="1:10" ht="232" x14ac:dyDescent="0.35">
-      <c r="A72" s="9"/>
-      <c r="B72" s="7"/>
-      <c r="C72" s="7"/>
+    <row r="72" spans="1:10" ht="240" x14ac:dyDescent="0.25">
+      <c r="A72" s="14"/>
+      <c r="B72" s="13"/>
+      <c r="C72" s="13"/>
       <c r="D72" s="3">
         <v>2</v>
       </c>
@@ -13241,10 +13241,10 @@
         <v>140</v>
       </c>
     </row>
-    <row r="73" spans="1:10" ht="232" x14ac:dyDescent="0.35">
-      <c r="A73" s="9"/>
-      <c r="B73" s="7"/>
-      <c r="C73" s="7"/>
+    <row r="73" spans="1:10" ht="240" x14ac:dyDescent="0.25">
+      <c r="A73" s="14"/>
+      <c r="B73" s="13"/>
+      <c r="C73" s="13"/>
       <c r="D73" s="3">
         <v>3</v>
       </c>
@@ -13267,12 +13267,12 @@
         <v>142</v>
       </c>
     </row>
-    <row r="74" spans="1:10" ht="203" x14ac:dyDescent="0.35">
-      <c r="A74" s="9"/>
-      <c r="B74" s="8">
+    <row r="74" spans="1:10" ht="210" x14ac:dyDescent="0.25">
+      <c r="A74" s="14"/>
+      <c r="B74" s="15">
         <v>5</v>
       </c>
-      <c r="C74" s="8">
+      <c r="C74" s="15">
         <v>25</v>
       </c>
       <c r="D74" s="1">
@@ -13297,10 +13297,10 @@
         <v>156</v>
       </c>
     </row>
-    <row r="75" spans="1:10" ht="203" x14ac:dyDescent="0.35">
-      <c r="A75" s="9"/>
-      <c r="B75" s="8"/>
-      <c r="C75" s="8"/>
+    <row r="75" spans="1:10" ht="210" x14ac:dyDescent="0.25">
+      <c r="A75" s="14"/>
+      <c r="B75" s="15"/>
+      <c r="C75" s="15"/>
       <c r="D75" s="1">
         <v>2</v>
       </c>
@@ -13317,16 +13317,16 @@
         <v>0</v>
       </c>
       <c r="I75" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J75" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="76" spans="1:10" ht="203" x14ac:dyDescent="0.35">
-      <c r="A76" s="9"/>
-      <c r="B76" s="8"/>
-      <c r="C76" s="8"/>
+    <row r="76" spans="1:10" ht="210" x14ac:dyDescent="0.25">
+      <c r="A76" s="14"/>
+      <c r="B76" s="15"/>
+      <c r="C76" s="15"/>
       <c r="D76" s="1">
         <v>3</v>
       </c>
@@ -13343,18 +13343,18 @@
         <v>1</v>
       </c>
       <c r="I76" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J76" s="2" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="77" spans="1:10" ht="232" x14ac:dyDescent="0.35">
-      <c r="A77" s="9"/>
-      <c r="B77" s="7">
+    <row r="77" spans="1:10" ht="255" x14ac:dyDescent="0.25">
+      <c r="A77" s="14"/>
+      <c r="B77" s="13">
         <v>6</v>
       </c>
-      <c r="C77" s="7">
+      <c r="C77" s="13">
         <v>50</v>
       </c>
       <c r="D77" s="3">
@@ -13379,10 +13379,10 @@
         <v>157</v>
       </c>
     </row>
-    <row r="78" spans="1:10" ht="232" x14ac:dyDescent="0.35">
-      <c r="A78" s="9"/>
-      <c r="B78" s="7"/>
-      <c r="C78" s="7"/>
+    <row r="78" spans="1:10" ht="255" x14ac:dyDescent="0.25">
+      <c r="A78" s="14"/>
+      <c r="B78" s="13"/>
+      <c r="C78" s="13"/>
       <c r="D78" s="3">
         <v>2</v>
       </c>
@@ -13405,10 +13405,10 @@
         <v>11</v>
       </c>
     </row>
-    <row r="79" spans="1:10" ht="232" x14ac:dyDescent="0.35">
-      <c r="A79" s="9"/>
-      <c r="B79" s="7"/>
-      <c r="C79" s="7"/>
+    <row r="79" spans="1:10" ht="255" x14ac:dyDescent="0.25">
+      <c r="A79" s="14"/>
+      <c r="B79" s="13"/>
+      <c r="C79" s="13"/>
       <c r="D79" s="3">
         <v>3</v>
       </c>
@@ -13431,12 +13431,12 @@
         <v>145</v>
       </c>
     </row>
-    <row r="80" spans="1:10" ht="304.5" x14ac:dyDescent="0.35">
-      <c r="A80" s="9"/>
-      <c r="B80" s="8">
+    <row r="80" spans="1:10" ht="345" x14ac:dyDescent="0.25">
+      <c r="A80" s="14"/>
+      <c r="B80" s="15">
         <v>7</v>
       </c>
-      <c r="C80" s="8">
+      <c r="C80" s="15">
         <v>17</v>
       </c>
       <c r="D80" s="1">
@@ -13461,10 +13461,10 @@
         <v>151</v>
       </c>
     </row>
-    <row r="81" spans="1:10" ht="304.5" x14ac:dyDescent="0.35">
-      <c r="A81" s="9"/>
-      <c r="B81" s="8"/>
-      <c r="C81" s="8"/>
+    <row r="81" spans="1:10" ht="345" x14ac:dyDescent="0.25">
+      <c r="A81" s="14"/>
+      <c r="B81" s="15"/>
+      <c r="C81" s="15"/>
       <c r="D81" s="1">
         <v>2</v>
       </c>
@@ -13481,16 +13481,16 @@
         <v>2</v>
       </c>
       <c r="I81" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J81" s="2" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="82" spans="1:10" ht="304.5" x14ac:dyDescent="0.35">
-      <c r="A82" s="9"/>
-      <c r="B82" s="8"/>
-      <c r="C82" s="8"/>
+    <row r="82" spans="1:10" ht="345" x14ac:dyDescent="0.25">
+      <c r="A82" s="14"/>
+      <c r="B82" s="15"/>
+      <c r="C82" s="15"/>
       <c r="D82" s="1">
         <v>3</v>
       </c>
@@ -13507,18 +13507,18 @@
         <v>2</v>
       </c>
       <c r="I82" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J82" s="2" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="83" spans="1:10" ht="290" x14ac:dyDescent="0.35">
-      <c r="A83" s="9"/>
-      <c r="B83" s="7">
+    <row r="83" spans="1:10" ht="315" x14ac:dyDescent="0.25">
+      <c r="A83" s="14"/>
+      <c r="B83" s="13">
         <v>8</v>
       </c>
-      <c r="C83" s="7">
+      <c r="C83" s="13">
         <v>3</v>
       </c>
       <c r="D83" s="3">
@@ -13531,22 +13531,22 @@
         <v>13</v>
       </c>
       <c r="G83" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H83" s="3">
         <v>7</v>
       </c>
       <c r="I83" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="J83" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="J83" s="4" t="s">
-        <v>173</v>
-      </c>
     </row>
-    <row r="84" spans="1:10" ht="290" x14ac:dyDescent="0.35">
-      <c r="A84" s="9"/>
-      <c r="B84" s="7"/>
-      <c r="C84" s="7"/>
+    <row r="84" spans="1:10" ht="315" x14ac:dyDescent="0.25">
+      <c r="A84" s="14"/>
+      <c r="B84" s="13"/>
+      <c r="C84" s="13"/>
       <c r="D84" s="3">
         <v>2</v>
       </c>
@@ -13569,10 +13569,10 @@
         <v>149</v>
       </c>
     </row>
-    <row r="85" spans="1:10" ht="290" x14ac:dyDescent="0.35">
-      <c r="A85" s="9"/>
-      <c r="B85" s="7"/>
-      <c r="C85" s="7"/>
+    <row r="85" spans="1:10" ht="315" x14ac:dyDescent="0.25">
+      <c r="A85" s="14"/>
+      <c r="B85" s="13"/>
+      <c r="C85" s="13"/>
       <c r="D85" s="3">
         <v>3</v>
       </c>
@@ -13595,12 +13595,12 @@
         <v>170</v>
       </c>
     </row>
-    <row r="86" spans="1:10" ht="290" x14ac:dyDescent="0.35">
-      <c r="A86" s="9"/>
-      <c r="B86" s="8">
+    <row r="86" spans="1:10" ht="315" x14ac:dyDescent="0.25">
+      <c r="A86" s="14"/>
+      <c r="B86" s="15">
         <v>9</v>
       </c>
-      <c r="C86" s="8">
+      <c r="C86" s="15">
         <v>15</v>
       </c>
       <c r="D86" s="1">
@@ -13625,10 +13625,10 @@
         <v>150</v>
       </c>
     </row>
-    <row r="87" spans="1:10" ht="290" x14ac:dyDescent="0.35">
-      <c r="A87" s="9"/>
-      <c r="B87" s="8"/>
-      <c r="C87" s="8"/>
+    <row r="87" spans="1:10" ht="315" x14ac:dyDescent="0.25">
+      <c r="A87" s="14"/>
+      <c r="B87" s="15"/>
+      <c r="C87" s="15"/>
       <c r="D87" s="1">
         <v>2</v>
       </c>
@@ -13651,10 +13651,10 @@
         <v>159</v>
       </c>
     </row>
-    <row r="88" spans="1:10" ht="290" x14ac:dyDescent="0.35">
-      <c r="A88" s="9"/>
-      <c r="B88" s="8"/>
-      <c r="C88" s="8"/>
+    <row r="88" spans="1:10" ht="315" x14ac:dyDescent="0.25">
+      <c r="A88" s="14"/>
+      <c r="B88" s="15"/>
+      <c r="C88" s="15"/>
       <c r="D88" s="1">
         <v>3</v>
       </c>
@@ -13677,12 +13677,12 @@
         <v>161</v>
       </c>
     </row>
-    <row r="89" spans="1:10" ht="275.5" x14ac:dyDescent="0.35">
-      <c r="A89" s="9"/>
-      <c r="B89" s="7">
+    <row r="89" spans="1:10" ht="285" x14ac:dyDescent="0.25">
+      <c r="A89" s="14"/>
+      <c r="B89" s="13">
         <v>10</v>
       </c>
-      <c r="C89" s="7">
+      <c r="C89" s="13">
         <v>21</v>
       </c>
       <c r="D89" s="3">
@@ -13707,10 +13707,10 @@
         <v>158</v>
       </c>
     </row>
-    <row r="90" spans="1:10" ht="275.5" x14ac:dyDescent="0.35">
-      <c r="A90" s="9"/>
-      <c r="B90" s="7"/>
-      <c r="C90" s="7"/>
+    <row r="90" spans="1:10" ht="285" x14ac:dyDescent="0.25">
+      <c r="A90" s="14"/>
+      <c r="B90" s="13"/>
+      <c r="C90" s="13"/>
       <c r="D90" s="3">
         <v>2</v>
       </c>
@@ -13733,10 +13733,10 @@
         <v>163</v>
       </c>
     </row>
-    <row r="91" spans="1:10" ht="275.5" x14ac:dyDescent="0.35">
-      <c r="A91" s="9"/>
-      <c r="B91" s="7"/>
-      <c r="C91" s="7"/>
+    <row r="91" spans="1:10" ht="285" x14ac:dyDescent="0.25">
+      <c r="A91" s="14"/>
+      <c r="B91" s="13"/>
+      <c r="C91" s="13"/>
       <c r="D91" s="3">
         <v>3</v>
       </c>
@@ -13762,6 +13762,53 @@
   </sheetData>
   <autoFilter ref="D1:D31" xr:uid="{E463F76D-3925-4F96-966D-21AC807524BF}"/>
   <mergeCells count="63">
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="C29:C31"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="C26:C28"/>
+    <mergeCell ref="C44:C46"/>
+    <mergeCell ref="A2:A31"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="C35:C37"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="B56:B58"/>
+    <mergeCell ref="C56:C58"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="C59:C61"/>
+    <mergeCell ref="A32:A61"/>
+    <mergeCell ref="B47:B49"/>
+    <mergeCell ref="C47:C49"/>
+    <mergeCell ref="B50:B52"/>
+    <mergeCell ref="C50:C52"/>
+    <mergeCell ref="B53:B55"/>
+    <mergeCell ref="C53:C55"/>
+    <mergeCell ref="B38:B40"/>
+    <mergeCell ref="C38:C40"/>
+    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="C41:C43"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="C62:C64"/>
+    <mergeCell ref="B65:B67"/>
+    <mergeCell ref="C65:C67"/>
+    <mergeCell ref="B68:B70"/>
+    <mergeCell ref="C68:C70"/>
     <mergeCell ref="B89:B91"/>
     <mergeCell ref="C89:C91"/>
     <mergeCell ref="A62:A91"/>
@@ -13778,53 +13825,6 @@
     <mergeCell ref="B77:B79"/>
     <mergeCell ref="C77:C79"/>
     <mergeCell ref="B62:B64"/>
-    <mergeCell ref="C62:C64"/>
-    <mergeCell ref="B65:B67"/>
-    <mergeCell ref="C65:C67"/>
-    <mergeCell ref="B68:B70"/>
-    <mergeCell ref="C68:C70"/>
-    <mergeCell ref="B56:B58"/>
-    <mergeCell ref="C56:C58"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="C59:C61"/>
-    <mergeCell ref="A32:A61"/>
-    <mergeCell ref="B47:B49"/>
-    <mergeCell ref="C47:C49"/>
-    <mergeCell ref="B50:B52"/>
-    <mergeCell ref="C50:C52"/>
-    <mergeCell ref="B53:B55"/>
-    <mergeCell ref="C53:C55"/>
-    <mergeCell ref="B38:B40"/>
-    <mergeCell ref="C38:C40"/>
-    <mergeCell ref="B41:B43"/>
-    <mergeCell ref="C41:C43"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="C44:C46"/>
-    <mergeCell ref="A2:A31"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="C35:C37"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="B29:B31"/>
-    <mergeCell ref="C29:C31"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="C20:C22"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="B26:B28"/>
-    <mergeCell ref="C26:C28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -13835,71 +13835,71 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1125B990-38CC-46D8-9CE0-A6AC50A223DD}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.453125" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="B1" s="7"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="B1" s="10"/>
+      <c r="D2" s="8" t="s">
+        <v>189</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="15"/>
-      <c r="B2" s="15"/>
-      <c r="C2" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="D2" s="11" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
         <v>190</v>
       </c>
+      <c r="B3" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="C3" s="10">
+        <v>0.60595182595182595</v>
+      </c>
+      <c r="D3" s="11">
+        <v>0.51285196285196277</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="12" t="s">
-        <v>191</v>
-      </c>
-      <c r="B3" s="12" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>192</v>
       </c>
-      <c r="C3" s="13">
-        <v>0.60292152292152301</v>
-      </c>
-      <c r="D3" s="14">
-        <v>0.51285196285196277</v>
+      <c r="B4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C4" s="11">
+        <v>0.18448569948569948</v>
+      </c>
+      <c r="D4" s="10">
+        <v>0.61388888888888893</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>193</v>
-      </c>
-      <c r="B4" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>194</v>
       </c>
-      <c r="C4" s="14">
-        <v>0.18448569948569948</v>
-      </c>
-      <c r="D4" s="13">
-        <v>0.61388888888888893</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="B5" t="s">
         <v>195</v>
       </c>
-      <c r="B5" t="s">
-        <v>196</v>
-      </c>
-      <c r="C5" s="14">
+      <c r="C5" s="11">
         <v>0.30828116328116317</v>
       </c>
-      <c r="D5" s="14">
+      <c r="D5" s="11">
         <v>0.59603174603174602</v>
       </c>
     </row>
